--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H2">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N2">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q2">
-        <v>13878.9534833583</v>
+        <v>16055.9183653403</v>
       </c>
       <c r="R2">
-        <v>13878.9534833583</v>
+        <v>144503.2652880627</v>
       </c>
       <c r="S2">
-        <v>0.3848481264076431</v>
+        <v>0.334731105950059</v>
       </c>
       <c r="T2">
-        <v>0.3848481264076431</v>
+        <v>0.334731105950059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H3">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N3">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q3">
-        <v>2427.5282052923</v>
+        <v>2581.411315925179</v>
       </c>
       <c r="R3">
-        <v>2427.5282052923</v>
+        <v>23232.70184332661</v>
       </c>
       <c r="S3">
-        <v>0.06731268915402359</v>
+        <v>0.05381683221290583</v>
       </c>
       <c r="T3">
-        <v>0.06731268915402359</v>
+        <v>0.05381683221290583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H4">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N4">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q4">
-        <v>32.60466377703987</v>
+        <v>36.69037466712923</v>
       </c>
       <c r="R4">
-        <v>32.60466377703987</v>
+        <v>330.213372004163</v>
       </c>
       <c r="S4">
-        <v>0.000904091492329776</v>
+        <v>0.0007649148065277856</v>
       </c>
       <c r="T4">
-        <v>0.000904091492329776</v>
+        <v>0.0007649148065277856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H5">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N5">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q5">
-        <v>2211.000562501186</v>
+        <v>5696.056284700102</v>
       </c>
       <c r="R5">
-        <v>2211.000562501186</v>
+        <v>51264.50656230092</v>
       </c>
       <c r="S5">
-        <v>0.06130861559447593</v>
+        <v>0.1187504306105158</v>
       </c>
       <c r="T5">
-        <v>0.06130861559447593</v>
+        <v>0.1187504306105158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H6">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N6">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q6">
-        <v>11088.24231341656</v>
+        <v>12240.9462706594</v>
       </c>
       <c r="R6">
-        <v>11088.24231341656</v>
+        <v>110168.5164359346</v>
       </c>
       <c r="S6">
-        <v>0.3074647728007052</v>
+        <v>0.2551972045335091</v>
       </c>
       <c r="T6">
-        <v>0.3074647728007052</v>
+        <v>0.2551972045335091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H7">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N7">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q7">
-        <v>1939.412866770494</v>
+        <v>1968.054178011048</v>
       </c>
       <c r="R7">
-        <v>1939.412866770494</v>
+        <v>17712.48760209943</v>
       </c>
       <c r="S7">
-        <v>0.05377778728075245</v>
+        <v>0.0410296649861741</v>
       </c>
       <c r="T7">
-        <v>0.05377778728075245</v>
+        <v>0.04102966498617409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H8">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N8">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q8">
-        <v>26.04867960259311</v>
+        <v>27.97254537119545</v>
       </c>
       <c r="R8">
-        <v>26.04867960259311</v>
+        <v>251.752908340759</v>
       </c>
       <c r="S8">
-        <v>0.000722301256537193</v>
+        <v>0.0005831669565878492</v>
       </c>
       <c r="T8">
-        <v>0.000722301256537193</v>
+        <v>0.0005831669565878492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H9">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N9">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O9">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P9">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q9">
-        <v>1766.423529087389</v>
+        <v>4342.642840423285</v>
       </c>
       <c r="R9">
-        <v>1766.423529087389</v>
+        <v>39083.78556380956</v>
       </c>
       <c r="S9">
-        <v>0.04898098307100644</v>
+        <v>0.09053469304246695</v>
       </c>
       <c r="T9">
-        <v>0.04898098307100644</v>
+        <v>0.09053469304246695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H10">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N10">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O10">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P10">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q10">
-        <v>22.06779465045999</v>
+        <v>25.59095897163167</v>
       </c>
       <c r="R10">
-        <v>22.06779465045999</v>
+        <v>230.318630744685</v>
       </c>
       <c r="S10">
-        <v>0.0006119156920124748</v>
+        <v>0.0005335160408755166</v>
       </c>
       <c r="T10">
-        <v>0.0006119156920124748</v>
+        <v>0.0005335160408755166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H11">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N11">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O11">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P11">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q11">
-        <v>3.859815079488815</v>
+        <v>4.114419964749667</v>
       </c>
       <c r="R11">
-        <v>3.859815079488815</v>
+        <v>37.029779682747</v>
       </c>
       <c r="S11">
-        <v>0.0001070284300183277</v>
+        <v>8.577674062647546E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001070284300183277</v>
+        <v>8.577674062647545E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H12">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N12">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O12">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P12">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q12">
-        <v>0.05184202294083246</v>
+        <v>0.05847948721433335</v>
       </c>
       <c r="R12">
-        <v>0.05184202294083246</v>
+        <v>0.5263153849290001</v>
       </c>
       <c r="S12">
-        <v>1.437522319091583E-06</v>
+        <v>1.219170587769194E-06</v>
       </c>
       <c r="T12">
-        <v>1.437522319091583E-06</v>
+        <v>1.219170587769194E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H13">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N13">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O13">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P13">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q13">
-        <v>3.515532092807441</v>
+        <v>9.078742141373333</v>
       </c>
       <c r="R13">
-        <v>3.515532092807441</v>
+        <v>81.70867927236</v>
       </c>
       <c r="S13">
-        <v>9.748184118241682E-05</v>
+        <v>0.0001892721006963649</v>
       </c>
       <c r="T13">
-        <v>9.748184118241682E-05</v>
+        <v>0.0001892721006963649</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H14">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N14">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O14">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P14">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q14">
-        <v>1992.983496054142</v>
+        <v>3279.746107549166</v>
       </c>
       <c r="R14">
-        <v>1992.983496054142</v>
+        <v>29517.71496794249</v>
       </c>
       <c r="S14">
-        <v>0.05526324195390276</v>
+        <v>0.06837559937930499</v>
       </c>
       <c r="T14">
-        <v>0.05526324195390276</v>
+        <v>0.06837559937930499</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H15">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N15">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O15">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P15">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q15">
-        <v>348.5870642303519</v>
+        <v>527.3054784374855</v>
       </c>
       <c r="R15">
-        <v>348.5870642303519</v>
+        <v>4745.749305937369</v>
       </c>
       <c r="S15">
-        <v>0.009665936175940739</v>
+        <v>0.01099317659411652</v>
       </c>
       <c r="T15">
-        <v>0.009665936175940739</v>
+        <v>0.01099317659411652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H16">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N16">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O16">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P16">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q16">
-        <v>4.681949318437474</v>
+        <v>7.494751203942557</v>
       </c>
       <c r="R16">
-        <v>4.681949318437474</v>
+        <v>67.45276083548302</v>
       </c>
       <c r="S16">
-        <v>0.0001298253088964321</v>
+        <v>0.0001562493220401384</v>
       </c>
       <c r="T16">
-        <v>0.0001298253088964321</v>
+        <v>0.0001562493220401384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H17">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N17">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O17">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P17">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q17">
-        <v>317.49422866176</v>
+        <v>1163.534716796636</v>
       </c>
       <c r="R17">
-        <v>317.49422866176</v>
+        <v>10471.81245116972</v>
       </c>
       <c r="S17">
-        <v>0.008803766018254028</v>
+        <v>0.02425717755300582</v>
       </c>
       <c r="T17">
-        <v>0.008803766018254028</v>
+        <v>0.02425717755300582</v>
       </c>
     </row>
   </sheetData>
